--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5A0A78-73E9-4A77-9686-4210DADFFA05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" tabRatio="718" activeTab="1"/>
+    <workbookView xWindow="1290" yWindow="1725" windowWidth="21105" windowHeight="10320" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flask_API" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>/api/users</t>
   </si>
@@ -156,7 +157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,7 +188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -208,7 +209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -293,7 +294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -356,22 +357,46 @@
     <t>&lt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>关注一个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/&lt;id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/unfollow/&lt;id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,7 +411,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -394,7 +419,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +440,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -548,6 +573,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,12 +588,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,7 +617,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1137,26 +1162,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="61.5" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1179,8 +1204,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1200,8 +1225,8 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="66">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1219,8 +1244,8 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1263,8 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1280,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1272,176 +1297,237 @@
       <c r="F6" s="4"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="49.5">
-      <c r="A10" s="20" t="s">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="16" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="99">
-      <c r="A11" s="18"/>
-      <c r="B11" s="7" t="s">
+    <row r="16" spans="1:7" ht="99" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="14" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,22 +1537,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H7:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="11" width="3.875" style="1"/>
-    <col min="12" max="12" width="3.875" style="21"/>
+    <col min="12" max="12" width="3.875" style="17"/>
     <col min="13" max="15" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="3.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:23">
+    <row r="7" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1565,7 @@
       <c r="K7" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="17">
         <v>4</v>
       </c>
       <c r="M7" s="1">
@@ -1495,7 +1581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="8:23">
+    <row r="8" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1594,7 @@
       <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="17">
         <v>3</v>
       </c>
       <c r="M8" s="1">
@@ -1524,7 +1610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="8:23">
+    <row r="9" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1537,7 +1623,7 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <v>2</v>
       </c>
       <c r="M9" s="1">
@@ -1571,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="8:23">
+    <row r="11" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1670,7 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="17">
         <v>1</v>
       </c>
       <c r="M11" s="1">
@@ -1615,7 +1701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="8:23">
+    <row r="13" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1628,7 +1714,7 @@
       <c r="K13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <v>6</v>
       </c>
       <c r="M13" s="1">
@@ -1662,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="8:23">
+    <row r="15" spans="8:23" x14ac:dyDescent="0.4">
       <c r="H15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1675,7 +1761,7 @@
       <c r="K15" s="1">
         <v>6</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="17">
         <v>7</v>
       </c>
       <c r="M15" s="1">
@@ -1706,7 +1792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="9:15">
+    <row r="20" spans="9:15" x14ac:dyDescent="0.4">
       <c r="I20" s="1">
         <v>1</v>
       </c>
@@ -1716,7 +1802,7 @@
       <c r="K20" s="1">
         <v>98</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="17">
         <v>99</v>
       </c>
       <c r="M20" s="1">
